--- a/biology/Zoologie/Michael_Claridge/Michael_Claridge.xlsx
+++ b/biology/Zoologie/Michael_Claridge/Michael_Claridge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Frederick Claridge FLS FRES FRSB (né le 2 juin 1934) est un entomologiste et universitaire britannique. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réalise sa carrière universitaire à l'université de Cardiff, où il est successivement lecteur (1959-1976), maître de conférences (1977-1983) puis titulaire d'une chaire (1983-1989). Il est professeur de 1989 à 2000, puis il prend sa retraite comme professeur émérite en 2001[1]. 
-Il reçoit la médaille linnéenne en 2000 et est président de la Linnean Society of London de 1988 à 1991[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réalise sa carrière universitaire à l'université de Cardiff, où il est successivement lecteur (1959-1976), maître de conférences (1977-1983) puis titulaire d'une chaire (1983-1989). Il est professeur de 1989 à 2000, puis il prend sa retraite comme professeur émérite en 2001. 
+Il reçoit la médaille linnéenne en 2000 et est président de la Linnean Society of London de 1988 à 1991,.
 </t>
         </is>
       </c>
